--- a/openpyxlplus/test/test_cell_range.xlsx
+++ b/openpyxlplus/test/test_cell_range.xlsx
@@ -1,39 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nmi.local\files\NMIDocs\yifu.yan\Documents\Projects\Packages\pyUtility_dev\pyUtility\xlsx\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0DA1E7-2074-4A9A-9434-F0A60AD6B061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6817C5EE-3CF9-4487-9737-88EAE950F342}"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="DefaultStyle" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
   <si>
     <t>a</t>
   </si>
@@ -50,22 +48,31 @@
     <t>e</t>
   </si>
   <si>
+    <t>rr1</t>
+  </si>
+  <si>
     <t>r1</t>
   </si>
   <si>
+    <t>rr2</t>
+  </si>
+  <si>
     <t>r2</t>
   </si>
   <si>
+    <t>rr3</t>
+  </si>
+  <si>
     <t>r3</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>num</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>Bold</t>
@@ -74,13 +81,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,19 +101,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -108,25 +458,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -175,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -208,26 +844,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -260,23 +879,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,45 +1020,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1434313B-2B19-4CE4-83B5-07B5A531098A}">
-  <dimension ref="B2:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7">
       <c r="C2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -474,9 +1091,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -494,9 +1114,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -516,58 +1139,60 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40411A7C-EBDB-4D25-8CBC-38B6964B7C9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0.3</v>
@@ -575,28 +1200,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB21C748-5492-4D7E-9569-4764A59E4514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K14:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/openpyxlplus/test/test_cell_range.xlsx
+++ b/openpyxlplus/test/test_cell_range.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="DefaultStyle" sheetId="4" r:id="rId3"/>
+    <sheet name="Clear" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>aa</t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>Bold</t>
+  </si>
+  <si>
+    <t>color,bold,fill</t>
   </si>
 </sst>
 </file>
@@ -83,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,15 +103,91 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,60 +200,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,24 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,32 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,19 +262,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,37 +370,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,121 +430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +459,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,8 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,45 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -559,154 +562,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,7 +1031,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1210,7 +1213,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K14:L16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1227,4 +1230,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/openpyxlplus/test/test_cell_range.xlsx
+++ b/openpyxlplus/test/test_cell_range.xlsx
@@ -87,8 +87,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -109,45 +109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -162,8 +125,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,22 +149,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -194,7 +180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,29 +189,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,8 +202,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,25 +268,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,145 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,15 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -497,30 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,25 +531,38 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,130 +580,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
